--- a/GoAnywhere.xlsx
+++ b/GoAnywhere.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anyelopineda.PERIFERIAGROUP\Desktop\katalon go\Katalon Studio HU\Go Anywhere 6.0\Data Files\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anyelopineda.PERIFERIAGROUP\Desktop\GOtoGit\GOTOGITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2412F2-15C1-4414-8166-F69AD67C6488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B59BA0-3C2B-4932-BDBA-104A7A550019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,15 +30,442 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anyelo M. Pineda Mendoza</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7DAB394F-2C49-4B22-A13B-7F611B69AA63}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingrese en la siguiente celda el nombre del proyecto a cual se le hara </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Entrega</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> de los archivos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{EB7AB925-090A-49BC-8112-998DD1F71B36}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingrese en la siguiente celda el </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Path simulado en GoAnyWHere</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2759F5E8-92C5-4101-9C5A-18EC2533E70F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Crear una carpeta en su dispositivo la cual contenga los archivos que desee cargar al aplicativo </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">GoAnyWhere,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>como siguiente paso,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>copiar su ruta local e ingresarla en la siguiente celda</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+La ruta local debe ser similar al ejemplo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{714F3A21-26C8-4BED-98D4-E19181EAD5F6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingrese en la siguiente celda, la </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hora </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">que se decea validar el </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Scheduler, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>con el formato de</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">24h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tenga en cuenta que la </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hora </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ingresada no puede ser nferior a la actual.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{569AA0B1-1BC9-4CD8-8F6F-A3AC39E6C094}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingrese en la siguiente celda, el </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Minuto</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> que se decea validar el Scheduler 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tenga en cuenta que este proceso no es inmediato se recomienda un marjen de 5 minutos a la hora actual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{FCBC8F96-CE3C-4152-9393-7BC77426452D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingrese en la siguiente celda, el </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dia</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> que se decea validar el </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Scheduler, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">con el formato </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(DD).
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{2ACA5895-037F-49CA-9BD4-7539DCA86668}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingrese en la siguiente celda, el </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> que se decea validar el Scheduler, con el formato </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(MM)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> o ingresando el nombre del mes.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{159E6791-1723-4FCC-B7A2-F5BC6CB9C707}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ingrese en la siguiente celda, el </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Año</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> que se decea validar el Scheduler. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>LOCATION</t>
   </si>
   <si>
-    <t>/gfs/userdata/webdocs/UMOCK/TPReport_BRP</t>
-  </si>
-  <si>
     <t>RUTA ARCHIVOS</t>
   </si>
   <si>
@@ -60,32 +487,246 @@
     <t>PRUEBAS FUNCIONALES</t>
   </si>
   <si>
-    <t>DOMICILIADOS_BRP</t>
-  </si>
-  <si>
     <t>MINUTO</t>
   </si>
   <si>
     <t>SCHEDULER</t>
   </si>
   <si>
-    <t>C:\Users\anyelopineda.PERIFERIAGROUP\Desktop\Archivos</t>
-  </si>
-  <si>
-    <t>¿VALIDAR LOG?</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>marzo</t>
+    <t>1. Datos principales</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Proyecto:</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre del proyecto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Location:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ruta local:</t>
+    </r>
+  </si>
+  <si>
+    <t>C:\Users\Admin\Documents\Goanywhere</t>
+  </si>
+  <si>
+    <t>2. Programación del Scheduler</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hora:</t>
+    </r>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Minuto :</t>
+    </r>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dia :</t>
+    </r>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mes :</t>
+    </r>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Año :</t>
+    </r>
+  </si>
+  <si>
+    <t>AAAA</t>
+  </si>
+  <si>
+    <t>9. Validar log</t>
+  </si>
+  <si>
+    <t>SI/NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +736,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,7 +744,15 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,14 +760,82 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +854,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -179,32 +902,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -220,11 +917,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,54 +1108,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,135 +1481,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B3:L7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="15" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="6">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7" t="s">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="9">
-        <v>2022</v>
-      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -700,7 +1654,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,75 +1670,73 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>'PRUEBAS FUNCIONALES'!D4</f>
-        <v>DOMICILIADOS_BRP</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>+'PRUEBAS FUNCIONALES'!H4</f>
-        <v>/gfs/userdata/webdocs/UMOCK/TPReport_BRP</v>
+        <f>'PRUEBAS FUNCIONALES'!C3</f>
+        <v>Nombre del proyecto</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'PRUEBAS FUNCIONALES'!G3</f>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>+'PRUEBAS FUNCIONALES'!D5</f>
-        <v>C:\Users\anyelopineda.PERIFERIAGROUP\Desktop\Archivos</v>
-      </c>
-      <c r="D2" s="10">
-        <f>+'PRUEBAS FUNCIONALES'!D6</f>
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
-        <f>+'PRUEBAS FUNCIONALES'!F6</f>
-        <v>12</v>
-      </c>
-      <c r="F2" s="12" t="str">
-        <f>+'PRUEBAS FUNCIONALES'!D7</f>
-        <v>si</v>
-      </c>
-      <c r="G2" s="2">
-        <f>+'PRUEBAS FUNCIONALES'!F6</f>
-        <v>12</v>
+        <f>'PRUEBAS FUNCIONALES'!C4</f>
+        <v>C:\Users\Admin\Documents\Goanywhere</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>'PRUEBAS FUNCIONALES'!B6</f>
+        <v>HH</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>'PRUEBAS FUNCIONALES'!D6</f>
+        <v>mm</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>'PRUEBAS FUNCIONALES'!C7</f>
+        <v>SI/NO</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>'PRUEBAS FUNCIONALES'!F6</f>
+        <v>DD</v>
       </c>
       <c r="H2" s="3" t="str">
+        <f>'PRUEBAS FUNCIONALES'!H6</f>
+        <v>MM</v>
+      </c>
+      <c r="I2" s="3" t="str">
         <f>'PRUEBAS FUNCIONALES'!J6</f>
-        <v>marzo</v>
-      </c>
-      <c r="I2" s="3">
-        <f>'PRUEBAS FUNCIONALES'!L6</f>
-        <v>2022</v>
+        <v>AAAA</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xur4V9kE5dcNnfbWB5qOcuR6mzNXQ9Ueeq+e0/cCBDdEkqqX2HqT+dtkVzgAW5RPrRTsjt4YfbhwSDrnlLoeXw==" saltValue="JkkAhFRjUjVVkpZ/zZnY6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F2" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>